--- a/Pull Request Here/1trickPwnyta's Anomaly Patch - 3242000764/1trickPwnyta's Anomaly Patch - 3242000764.xlsx
+++ b/Pull Request Here/1trickPwnyta's Anomaly Patch - 3242000764/1trickPwnyta's Anomaly Patch - 3242000764.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PDSSO2\Desktop\RimworldExtractor-Standard\RIM EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC19DAA-F859-405E-9DC3-BE9024BF12EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029DB7DD-5A79-4A6F-B202-0C95E509257B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -226,79 +226,79 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>지하 통로: 열렸을 때 안에 들어간 정착민이 없으면 아노말리 음악을 재생하지 않음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Forbid items from the labyrinth outside the home area</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>통계 표시: 일부 실체들도 통계 탭에서 기본 정보, 전투 능력치를 표시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Automatically forbid corpses spawned around monolith</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>부자연적 어둠: 줌아웃을 할 때 정착민들의 실루엣을 표시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공허 모노리스: 주변에 처음부터 생성된 시체는 기본적으로 상호작용 금지로 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이상 현상 연구: 프로젝트가 활성화되어 있지 않다면 무의미하게 실체 연구를 하지 않음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공허 유인: 맵에 유효한 장소가 없을 때 발생하는 아무런 효과가 없던 의식 버그를 수정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>대기 난로: 정상적으로 가동 중일 때 불필요한 "따뜻한 옷 필요" 경고 비활성화</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>오벨리스크: "위험한 활성 등급"에 도달하면 가장 높은 %를 경고 제목에 함께 표시</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>죽음의 안개: 해당 이벤트와 관련된 시끄러운 알림 소리를 비활성화</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>상단 구성: 구울과 동물이 있다면 먼저 뒤틀린 고기부터 자동 선택되도록 함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>초정신 의식: 참여자들이 허가구역을 지키며 이동하도록 함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>초정신 의식: 수행자를 선택할 때 정신 감응력이 높은 순서대로 정렬되도록 함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>억제 활성화: 무생물 실체도 기본적으로 연구 및 억제가 활성화되도록 함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>휘청이는 자: 일정 탭에서 휘청이는 자를 갱신하지 않음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>미궁: 정착지로 복귀할 때 주거지역으로 이동되지 않은 물품은 상호작용 금지로 설정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>구울: 동물처럼 스스로 사냥할 수 있도록 설정</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>실체 연구: 정착민들이 억제실 문에 서서 실체를 연구하지 않음</t>
+    <t>통계 표시: 일부 실체들의 기본 정보 및 전투 능력치를 통계 탭에서 표시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공허 모노리스: 주변에 처음 생성된 시체는 기본적으로 상호작용 금지로 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>휘청이는 자: 일정 탭에서 아군 휘청이는 자를 표시하지 않음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>초정신 의식: 수행자를 선택할 때 정신 감응력이 높은 순으로 정렬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미궁: 주거지역으로 이동되지 않은 물품은 상호작용 금지로 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지하 통로: 열렸을 때 안에 정착민이 없으면 아노말리/전투 음악을 재생하지 않음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>초정신 의식: 참여자들이 허가구역을 준수하며 이동함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상단 구성: 짐을 꾸릴 때 구울과 동물이 있다면 먼저 뒤틀린 고기, 이후 곤충 고기로 자동 선택함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공허 유인: 유효한 장소가 없을 때 발생하던 아무런 효과가 없는 의식 버그 수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>죽음의 안개: 해당 이벤트와 관련된 시끄러운 알림 소리 비활성화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부자연적 어둠: 줌아웃 시 정착민들의 실루엣을 표시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대기 난로: 정상적으로 가동 중일 때 "따뜻한 옷 필요" 경고 비활성화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>억제 활성화: 무생물 실체도 기본적으로 조사 및 억제 활성화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상 현상 연구: 프로젝트가 활성화되지 않으면 무의미하게 실체를 조사하지 않음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>실체 조사: 정착민들이 억제실 문에 서서 실체를 조사하지 않음</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -718,7 +718,7 @@
         <v>55</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -752,7 +752,7 @@
         <v>57</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -769,7 +769,7 @@
         <v>58</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -786,7 +786,7 @@
         <v>59</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -803,7 +803,7 @@
         <v>20</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -854,7 +854,7 @@
         <v>61</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -871,7 +871,7 @@
         <v>29</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -885,10 +885,10 @@
         <v>31</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -905,7 +905,7 @@
         <v>34</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -922,7 +922,7 @@
         <v>37</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -939,7 +939,7 @@
         <v>40</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -956,7 +956,7 @@
         <v>43</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -973,7 +973,7 @@
         <v>46</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -987,7 +987,7 @@
         <v>48</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>69</v>
@@ -1007,7 +1007,7 @@
         <v>51</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
